--- a/uploads/default/department.xlsx
+++ b/uploads/default/department.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/opt/sites/bo/uploads/xlsx/default/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhichang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,57 +27,196 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>费用承担中心名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成本中心编码</t>
-  </si>
-  <si>
-    <t>总经理室</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门领导编码</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+  <si>
+    <t>公司</t>
+    <rPh sb="0" eb="1">
+      <t>gong'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
     <rPh sb="0" eb="1">
       <t>bu'men</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本中心编码</t>
+    <rPh sb="0" eb="1">
+      <t>cheng'ben</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhong'xin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bian'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门领导</t>
+    <rPh sb="0" eb="1">
+      <t>bu'men</t>
+    </rPh>
     <rPh sb="2" eb="3">
       <t>ling'dao</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导编码</t>
+    <rPh sb="0" eb="1">
+      <t>ling'dao</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian'ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一城一家网络科技有限公司</t>
+    <rPh sb="0" eb="1">
+      <t>yi'cheng'yi'jia</t>
+    </rPh>
     <rPh sb="4" eb="5">
-      <t>bian'ma</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门领导姓名</t>
-    <rPh sb="0" eb="1">
-      <t>bu'men</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ling'dao</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>xing'm</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>wang'luo'ke'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>you'xian'gong'si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">产品运营部 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">孙继刚 </t>
+  </si>
+  <si>
+    <t>产品运营部-内容运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傅群智</t>
+  </si>
+  <si>
+    <t>产品运营部-平台运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴晓珍</t>
+  </si>
+  <si>
+    <t>新智超脑科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础运维事业部</t>
+  </si>
+  <si>
+    <t>周英飚</t>
+  </si>
+  <si>
+    <t>技术研发部</t>
+  </si>
+  <si>
+    <t>胡鹏飞</t>
+  </si>
+  <si>
+    <t>人力资源部</t>
+  </si>
+  <si>
+    <t>商务部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王霄</t>
+  </si>
+  <si>
+    <t>生态合作部</t>
+  </si>
+  <si>
+    <t>刘安</t>
+  </si>
+  <si>
+    <t>市场策划部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱列元</t>
+  </si>
+  <si>
+    <t>项目交付部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾春庆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新智超脑科技有限公司</t>
+  </si>
+  <si>
+    <t>销售部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘茂亮</t>
+  </si>
+  <si>
+    <t>业务发展部</t>
+  </si>
+  <si>
+    <t>陈世英</t>
+  </si>
+  <si>
+    <t>应用事业一部</t>
+  </si>
+  <si>
+    <t>袁生育</t>
+  </si>
+  <si>
+    <t>战略策划室</t>
   </si>
   <si>
     <t>徐刚</t>
-    <rPh sb="0" eb="1">
-      <t>xu'gang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职能支持部-财务组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢仲贤</t>
+  </si>
+  <si>
+    <t>职能支持部-行政组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张琰</t>
+  </si>
+  <si>
+    <t>职能支持部-人力组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈青</t>
+  </si>
+  <si>
+    <t>职能支持部-商务组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职能中心-行政B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,28 +232,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -122,47 +263,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -440,116 +548,341 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>8000001</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>10066188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>8168020</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>10053846</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>8168019</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>10053839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>8168008</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>10052965</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>8168009</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>10052980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>8168031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>8168028</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>10053504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>8168015</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>10052566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
         <v>8168021</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>10053953</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>8168032</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>10063394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>8168026</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12">
+        <v>10002082</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>8168014</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>10053295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>8168027</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14">
+        <v>10000058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>8168021</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15">
         <v>10052359</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>8168018</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>10008627</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>8168017</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17">
+        <v>10046101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>8168016</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>10030510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>8168022</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>10053504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8168030</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
